--- a/unir/Servicio Electoral (SERVEL).xlsx
+++ b/unir/Servicio Electoral (SERVEL).xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,525 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>organismo_nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>anyo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Paterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Materno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calificacionp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>remuneracionbruta_mensual</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>remuliquida_mensual</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_pago</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Felipe Esteban</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ingeniero Industrial</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1235380</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FELIPE ESTEBAN</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Felipe Esteban Sanchez Perez</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FELIPE ESTEBAN SANCHEZ PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rerequeo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2212648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Pago contra entrega de informe</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto Miranda Rerequeo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO MIRANDA REREQUEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Felipe Esteban</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ingeniero Industrial</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1235380</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FELIPE ESTEBAN</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Felipe Esteban Sanchez Perez</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>FELIPE ESTEBAN SANCHEZ PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rerequeo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2097705</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pago contra entrega de informe</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto Miranda Rerequeo</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO MIRANDA REREQUEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rerequeo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>811595</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pago contra entrega de informe</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto Miranda Rerequeo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO MIRANDA REREQUEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rerequeo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1227043</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pago contra entrega de informe</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto Miranda Rerequeo</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO MIRANDA REREQUEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Servicio Electoral (SERVEL)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rerequeo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1227043</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pago contra entrega de informe</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Baltazar Alberto Miranda Rerequeo</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>BALTAZAR ALBERTO MIRANDA REREQUEO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>